--- a/Music and Memory - Lucy/PilotTest/Modified Lyrics/2_lyricErrorAnalysis-Modifications_v2.xlsx
+++ b/Music and Memory - Lucy/PilotTest/Modified Lyrics/2_lyricErrorAnalysis-Modifications_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28600" windowHeight="16380" tabRatio="337"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="34860" windowHeight="21100" tabRatio="337"/>
   </bookViews>
   <sheets>
     <sheet name="Line Modifications" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="459">
   <si>
     <t>line number</t>
   </si>
@@ -3743,6 +3743,89 @@
         <scheme val="minor"/>
       </rPr>
       <t>just can't stop</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">orig - % chosen </t>
+  </si>
+  <si>
+    <t>mod - % chosen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Look </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> now, I can see you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comin'</t>
+    </r>
+  </si>
+  <si>
+    <t>50% of people picked mod</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I just can't stop myself, I feel like I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flying</t>
     </r>
   </si>
 </sst>
@@ -3844,7 +3927,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3889,7 +3972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3952,7 +4041,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4094,8 +4183,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4171,10 +4264,14 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4245,6 +4342,8 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4315,9 +4414,31 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5110,22 +5231,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="70.5" style="49" customWidth="1"/>
-    <col min="4" max="4" width="56.1640625" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="49"/>
+    <col min="2" max="2" width="44.83203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="61.83203125" style="49" customWidth="1"/>
+    <col min="4" max="5" width="14" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="47" t="s">
         <v>87</v>
       </c>
@@ -5135,9 +5257,17 @@
       <c r="C1" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="47"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="53" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="48" t="s">
         <v>88</v>
       </c>
@@ -5147,56 +5277,123 @@
       <c r="C2" s="50" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E2" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="F2" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" s="50" t="s">
         <v>312</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="49">
+        <f>33/38</f>
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="E3" s="49">
+        <f>5/38</f>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="50" t="s">
         <v>313</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="49">
+        <f>29/38</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="E4" s="49">
+        <f>9/38</f>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="50" t="s">
         <v>314</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E5" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="50" t="s">
         <v>315</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="49">
+        <f>20/38</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="E6" s="49">
+        <f>18/38</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="50" t="s">
         <v>316</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="50" t="s">
+      <c r="D7" s="49">
+        <f>37/38</f>
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="E7" s="49">
+        <f>1/38</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="47"/>
+      <c r="B8" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="43" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="43">
+        <f>33/38</f>
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="E8" s="43">
+        <f>5/38</f>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="48" t="s">
         <v>89</v>
       </c>
@@ -5206,65 +5403,133 @@
       <c r="C9" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="28">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E9" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="F9" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="51" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19">
+      <c r="D10" s="49">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E10" s="49">
+        <f>20/38</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16">
       <c r="B11" s="51" t="s">
         <v>304</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E11" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="51" t="s">
         <v>319</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="49">
+        <f>18/38</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="E12" s="49">
+        <f>20/38</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" s="51" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="51" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="49">
+        <f>32/38</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="E13" s="49">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" s="51" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E14" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" s="51" t="s">
         <v>299</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="51" t="s">
+      <c r="D15" s="49">
+        <f>33/38</f>
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="E15" s="49">
+        <f>5/38</f>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="47"/>
+      <c r="B16" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="55" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="43">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="E16" s="43">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="48" t="s">
         <v>285</v>
       </c>
@@ -5274,48 +5539,103 @@
       <c r="C17" s="49" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="49">
+        <f>17/38</f>
+        <v>0.44736842105263158</v>
+      </c>
+      <c r="E17" s="49">
+        <f>21/38</f>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="F17" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="49">
+        <f>28/38</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="E18" s="49">
+        <f>10/38</f>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="B19" s="51" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="49">
+        <f>4/38</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E19" s="49">
+        <f>34/38</f>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="B20" s="51" t="s">
         <v>322</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="49">
+        <f>27/38</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="E20" s="49">
+        <f>11/38</f>
+        <v>0.28947368421052633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="B21" s="51" t="s">
         <v>323</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="51" t="s">
+      <c r="D21" s="49">
+        <f>2/38</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E21" s="49">
+        <f>36/38</f>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="47">
+        <v>0</v>
+      </c>
+      <c r="B22" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="43" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="43">
+        <f>27/38</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="E22" s="43">
+        <f>11/38</f>
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="48" t="s">
         <v>286</v>
       </c>
@@ -5325,88 +5645,181 @@
       <c r="C23" s="49" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="49">
+        <f>11/38</f>
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="E23" s="49">
+        <f>27/38</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="F23" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24" s="51" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="49">
+        <f>15/38</f>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="E24" s="49">
+        <f>23/38</f>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25" s="51" t="s">
         <v>105</v>
       </c>
       <c r="C25" s="49" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="49">
+        <f>18/38</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="E25" s="49">
+        <f>20/38</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26" s="51" t="s">
         <v>325</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="49">
+        <f>38/38</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="49">
+        <f>0/38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="B27" s="51" t="s">
         <v>326</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="49">
+        <f>10/38</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="E27" s="49">
+        <f>28/38</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="B28" s="51" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="49" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E28" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="B29" s="51" t="s">
         <v>327</v>
       </c>
       <c r="C29" s="49" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="19">
+      <c r="D29" s="49">
+        <f>22/38</f>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="E29" s="49">
+        <f>16/38</f>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16">
       <c r="B30" s="51" t="s">
         <v>328</v>
       </c>
       <c r="C30" s="49" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="49">
+        <f>34/38</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E30" s="49">
+        <f>4/38</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="51" t="s">
         <v>329</v>
       </c>
       <c r="C31" s="49" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="49">
+        <f>34/38</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E31" s="49">
+        <f>4/38</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32" s="51" t="s">
         <v>402</v>
       </c>
       <c r="C32" s="49" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="51" t="s">
+      <c r="D32" s="49">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E32" s="49">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="47"/>
+      <c r="B33" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="43" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="43">
+        <f>17/38</f>
+        <v>0.44736842105263158</v>
+      </c>
+      <c r="E33" s="43">
+        <f>21/38</f>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="48" t="s">
         <v>287</v>
       </c>
@@ -5416,80 +5829,165 @@
       <c r="C34" s="49" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="49">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E34" s="49">
+        <f>32/38</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="F34" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="B35" s="51" t="s">
         <v>330</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="49">
+        <f>4/38</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E35" s="49">
+        <f>34/38</f>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="B36" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="49" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E36" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="B37" s="51" t="s">
         <v>332</v>
       </c>
       <c r="C37" s="49" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="49">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E37" s="49">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="B38" s="51" t="s">
         <v>377</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E38" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="B39" s="50" t="s">
         <v>132</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="49">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="E39" s="49">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="B40" s="51" t="s">
         <v>333</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="49">
+        <f>21/38</f>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="E40" s="49">
+        <f>17/38</f>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="B41" s="51" t="s">
         <v>378</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="49">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E41" s="49">
+        <f>32/38</f>
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="B42" s="51" t="s">
         <v>136</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="B43" s="51" t="s">
+      <c r="D42" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E42" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="47"/>
+      <c r="B43" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="43" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="43">
+        <f>33/38</f>
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="E43" s="43">
+        <f>5/38</f>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="48" t="s">
         <v>288</v>
       </c>
@@ -5499,72 +5997,149 @@
       <c r="C44" s="49" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="49">
+        <f>29/38</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="E44" s="49">
+        <f>9/38</f>
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="F44" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="B45" s="51" t="s">
         <v>145</v>
       </c>
       <c r="C45" s="49" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="E45" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="B46" s="51" t="s">
         <v>335</v>
       </c>
       <c r="C46" s="49" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="49">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E46" s="49">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="B47" s="51" t="s">
         <v>336</v>
       </c>
       <c r="C47" s="49" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="49">
+        <f>5/38</f>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="E47" s="49">
+        <f>33/38</f>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="B48" s="51" t="s">
         <v>152</v>
       </c>
       <c r="C48" s="49" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="49">
+        <f>34/38</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E48" s="49">
+        <f>4/38</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="B49" s="51" t="s">
         <v>379</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="49">
+        <f>20/38</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="E49" s="49">
+        <f>18/38</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="B50" s="50" t="s">
         <v>415</v>
       </c>
       <c r="C50" s="49" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="49">
+        <f>18/38</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="E50" s="49">
+        <f>20/38</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="B51" s="51" t="s">
         <v>416</v>
       </c>
       <c r="C51" s="49" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="51" t="s">
+      <c r="D51" s="49">
+        <f>32/38</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="E51" s="49">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="47"/>
+      <c r="B52" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="43" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="43">
+        <f>20/38</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="E52" s="43">
+        <f>18/38</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="F52" s="43"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="48" t="s">
         <v>289</v>
       </c>
@@ -5574,97 +6149,198 @@
       <c r="C53" s="51" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="49">
+        <f>14/38</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="E53" s="49">
+        <f>24/28</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F53" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="B54" s="51" t="s">
         <v>338</v>
       </c>
       <c r="C54" s="49" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="49">
+        <f>9/38</f>
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="E54" s="49">
+        <f>29/38</f>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="B55" s="51" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="51" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="49">
+        <f>23/38</f>
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="E55" s="49">
+        <f>15/38</f>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="B56" s="51" t="s">
         <v>165</v>
       </c>
       <c r="C56" s="49" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="53"/>
+      <c r="D56" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E56" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="56"/>
       <c r="B57" s="50" t="s">
         <v>166</v>
       </c>
       <c r="C57" s="51" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="49">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="E57" s="49">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="B58" s="50" t="s">
         <v>167</v>
       </c>
       <c r="C58" s="50" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="49">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="E58" s="49">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="B59" s="50" t="s">
         <v>170</v>
       </c>
       <c r="C59" s="49" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="49">
+        <f>29/38</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="E59" s="49">
+        <f>9/38</f>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="B60" s="50" t="s">
         <v>171</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="49">
+        <f>36/38</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="E60" s="49">
+        <f>2/38</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="B61" s="51" t="s">
         <v>172</v>
       </c>
       <c r="C61" s="49" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="49">
+        <f>11/38</f>
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="E61" s="49">
+        <f>27/38</f>
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="B62" s="51" t="s">
         <v>173</v>
       </c>
       <c r="C62" s="49" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="E62" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="B63" s="51" t="s">
         <v>176</v>
       </c>
       <c r="C63" s="49" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" s="51" t="s">
+      <c r="D63" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E63" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="47"/>
+      <c r="B64" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="43" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="43">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="E64" s="43">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="F64" s="43"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="48" t="s">
         <v>290</v>
       </c>
@@ -5674,48 +6350,101 @@
       <c r="C65" s="51" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E65" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="F65" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="B66" s="51" t="s">
         <v>340</v>
       </c>
       <c r="C66" s="49" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="49">
+        <f>38/38</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="49">
+        <f>0/38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="B67" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="49" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="49">
+        <f>33/38</f>
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="E67" s="49">
+        <f>5/38</f>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="B68" s="51" t="s">
         <v>341</v>
       </c>
       <c r="C68" s="49" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="49">
+        <f>31/38</f>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="E68" s="49">
+        <f>7/38</f>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="B69" s="51" t="s">
         <v>447</v>
       </c>
       <c r="C69" s="49" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="B70" s="51" t="s">
+      <c r="D69" s="49">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E69" s="49">
+        <f>32/38</f>
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="47"/>
+      <c r="B70" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="43" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="43">
+        <f>15/38</f>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="E70" s="43">
+        <f>23/38</f>
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="F70" s="43"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="48" t="s">
         <v>291</v>
       </c>
@@ -5725,80 +6454,165 @@
       <c r="C71" s="48" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E71" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="F71" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="B72" s="51" t="s">
         <v>343</v>
       </c>
       <c r="C72" s="49" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="49">
+        <f>27/38</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="E72" s="49">
+        <f>11/38</f>
+        <v>0.28947368421052633</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="B73" s="51" t="s">
         <v>181</v>
       </c>
       <c r="C73" s="49" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="49">
+        <f>9/38</f>
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="E73" s="49">
+        <f>29/38</f>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="B74" s="51" t="s">
         <v>182</v>
       </c>
       <c r="C74" s="49" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="49">
+        <f>2/38</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E74" s="49">
+        <f>36/38</f>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="B75" s="51" t="s">
         <v>183</v>
       </c>
       <c r="C75" s="48" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="49">
+        <f>5/38</f>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="E75" s="49">
+        <f>33/38</f>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="B76" s="50" t="s">
         <v>344</v>
       </c>
       <c r="C76" s="49" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E76" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="B77" s="51" t="s">
         <v>345</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="49">
+        <f>32/38</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="E77" s="49">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="B78" s="51" t="s">
         <v>346</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="49">
+        <f>27/38</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="E78" s="49">
+        <f>11/38</f>
+        <v>0.28947368421052633</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="B79" s="51" t="s">
         <v>191</v>
       </c>
       <c r="C79" s="49" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="B80" s="51" t="s">
+      <c r="D79" s="49">
+        <f>32/38</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="E79" s="49">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="47"/>
+      <c r="B80" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="55" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="43">
+        <f>19/38</f>
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="43">
+        <f>19/38</f>
+        <v>0.5</v>
+      </c>
+      <c r="F80" s="43"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="48" t="s">
         <v>292</v>
       </c>
@@ -5808,48 +6622,101 @@
       <c r="C81" s="49" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="49">
+        <f>27/38</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="E81" s="49">
+        <f>11/38</f>
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="F81" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="B82" s="51" t="s">
         <v>200</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="49">
+        <f>31/38</f>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="E82" s="49">
+        <f>7/38</f>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="B83" s="51" t="s">
         <v>348</v>
       </c>
       <c r="C83" s="49" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="49">
+        <f>2/38</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E83" s="49">
+        <f>36/38</f>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="B84" s="51" t="s">
         <v>349</v>
       </c>
       <c r="C84" s="48" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="49">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="E84" s="49">
+        <f>26/38</f>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="B85" s="51" t="s">
         <v>207</v>
       </c>
       <c r="C85" s="49" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="B86" s="51" t="s">
+      <c r="D85" s="49">
+        <f>29/38</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="E85" s="49">
+        <f>9/38</f>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="47"/>
+      <c r="B86" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="43" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="43">
+        <f>7/38</f>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="E86" s="43">
+        <f>31/38</f>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="F86" s="43"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="48" t="s">
         <v>293</v>
       </c>
@@ -5859,56 +6726,117 @@
       <c r="C87" s="51" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="E87" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="F87" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="B88" s="51" t="s">
         <v>351</v>
       </c>
       <c r="C88" s="51" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="49">
+        <f>29/38</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="E88" s="49">
+        <f>7/38</f>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="B89" s="51" t="s">
         <v>217</v>
       </c>
       <c r="C89" s="49" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="49">
+        <f>10/38</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="E89" s="49">
+        <f>28/38</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="B90" s="51" t="s">
         <v>218</v>
       </c>
       <c r="C90" s="49" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="49">
+        <f>34/38</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E90" s="49">
+        <f>4/38</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="B91" s="51" t="s">
         <v>352</v>
       </c>
       <c r="C91" s="49" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="49">
+        <f>28/38</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="E91" s="49">
+        <f>10/38</f>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="B92" s="51" t="s">
         <v>223</v>
       </c>
       <c r="C92" s="51" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="B93" s="51" t="s">
+      <c r="D92" s="49">
+        <f>10/38</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="E92" s="49">
+        <f>28/38</f>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="47"/>
+      <c r="B93" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="43" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="43">
+        <f>32/38</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="E93" s="43">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="F93" s="43"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="48" t="s">
         <v>294</v>
       </c>
@@ -5918,72 +6846,152 @@
       <c r="C94" s="51" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="49">
+        <f>17/38</f>
+        <v>0.44736842105263158</v>
+      </c>
+      <c r="E94" s="49">
+        <f>21/38</f>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="F94" s="49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="B95" s="51" t="s">
         <v>368</v>
       </c>
       <c r="C95" s="49" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="49">
+        <f>16/38</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="E95" s="49">
+        <f>22/38</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="B96" s="51" t="s">
         <v>234</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="97" spans="2:3">
+      <c r="D96" s="49">
+        <f>4/38</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E96" s="49">
+        <f>34/38</f>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
       <c r="B97" s="51" t="s">
         <v>235</v>
       </c>
       <c r="C97" s="51" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="98" spans="2:3">
+      <c r="D97" s="49">
+        <f>28/38</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="E97" s="49">
+        <f>10/38</f>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
       <c r="B98" s="51" t="s">
         <v>238</v>
       </c>
       <c r="C98" s="49" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="99" spans="2:3">
+      <c r="D98" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="E98" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
       <c r="B99" s="51" t="s">
         <v>239</v>
       </c>
       <c r="C99" s="51" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="100" spans="2:3">
+      <c r="D99" s="49">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E99" s="49">
+        <f>25/38</f>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
       <c r="B100" s="51" t="s">
         <v>354</v>
       </c>
       <c r="C100" s="51" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="101" spans="2:3">
+      <c r="D100" s="49">
+        <f>8/38</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="E100" s="49">
+        <f>30/38</f>
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
       <c r="B101" s="51" t="s">
         <v>355</v>
       </c>
       <c r="C101" s="49" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="102" spans="2:3">
+      <c r="D101" s="49">
+        <f>35/38</f>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="E101" s="49">
+        <f>3/38</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
       <c r="B102" s="50" t="s">
         <v>246</v>
       </c>
       <c r="C102" s="49" t="s">
         <v>372</v>
       </c>
+      <c r="D102" s="49">
+        <f>16/38</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="E102" s="49">
+        <f>22/38</f>
+        <v>0.57894736842105265</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E102">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6738,19 +7746,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I29">
-    <cfRule type="top10" dxfId="16" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J29">
-    <cfRule type="top10" dxfId="15" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="14" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="13" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7581,19 +8589,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I28">
-    <cfRule type="top10" dxfId="11" priority="4" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="10" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J28">
-    <cfRule type="top10" dxfId="9" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="8" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8640,18 +9648,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I28">
-    <cfRule type="top10" dxfId="6" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J28">
-    <cfRule type="top10" dxfId="5" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="4" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9503,18 +10511,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I30">
-    <cfRule type="top10" dxfId="2" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="1" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10168,7 +11176,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:S1">
-    <cfRule type="top10" dxfId="45" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="47" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10414,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="17">
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="16">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10509,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17">
+    <row r="8" spans="1:18" ht="16">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10782,7 +11790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17">
+    <row r="14" spans="1:18" ht="16">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10877,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17">
+    <row r="16" spans="1:18" ht="16">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -11212,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17">
+    <row r="24" spans="1:17" ht="16">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -11301,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="17">
+    <row r="26" spans="1:17" ht="16">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -11574,7 +12582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17">
+    <row r="32" spans="1:17" ht="16">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11660,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="17">
+    <row r="34" spans="1:17" ht="16">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -12052,20 +13060,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J36">
-    <cfRule type="top10" dxfId="43" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="42" priority="6" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="44" priority="6" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I36">
-    <cfRule type="top10" dxfId="41" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="40" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="39" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12957,21 +13965,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J13">
-    <cfRule type="top10" dxfId="37" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="36" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="35" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="34" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13928,7 +14936,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="3" customFormat="1" ht="17">
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="16">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -14292,7 +15300,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17">
+    <row r="50" spans="1:13" ht="16">
       <c r="A50">
         <v>49</v>
       </c>
@@ -15060,10 +16068,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I77">
-    <cfRule type="top10" dxfId="33" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="32" priority="9" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="9" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -15202,7 +16210,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" ht="16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15945,18 +16953,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I36">
-    <cfRule type="top10" dxfId="30" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J36">
-    <cfRule type="top10" dxfId="29" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="28" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16802,18 +17810,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I30">
-    <cfRule type="top10" dxfId="26" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="25" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="24" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -17815,18 +18823,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I27">
-    <cfRule type="top10" dxfId="22" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="21" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J27">
-    <cfRule type="top10" dxfId="20" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18984,12 +19992,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:S1 J1:K1048576">
-    <cfRule type="top10" dxfId="18" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="7" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Music and Memory - Lucy/PilotTest/Modified Lyrics/2_lyricErrorAnalysis-Modifications_v2.xlsx
+++ b/Music and Memory - Lucy/PilotTest/Modified Lyrics/2_lyricErrorAnalysis-Modifications_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41620" yWindow="480" windowWidth="39300" windowHeight="19420" tabRatio="337" activeTab="2"/>
+    <workbookView xWindow="38400" yWindow="480" windowWidth="38400" windowHeight="19420" tabRatio="337" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Line Modifications" sheetId="14" r:id="rId1"/>
@@ -4564,7 +4564,7 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="49">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5055,26 +5055,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -12917,8 +12897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12965,12 +12945,12 @@
         <v>459</v>
       </c>
       <c r="D2" s="49">
-        <f>3/10</f>
-        <v>0.3</v>
+        <f>3/11</f>
+        <v>0.27272727272727271</v>
       </c>
       <c r="E2" s="49">
-        <f>7/10</f>
-        <v>0.7</v>
+        <f>8/11</f>
+        <v>0.72727272727272729</v>
       </c>
       <c r="F2" s="49">
         <v>2</v>
@@ -12987,12 +12967,12 @@
         <v>456</v>
       </c>
       <c r="D3" s="49">
-        <f>5/10</f>
-        <v>0.5</v>
+        <f>5/11</f>
+        <v>0.45454545454545453</v>
       </c>
       <c r="E3" s="49">
-        <f>5/10</f>
-        <v>0.5</v>
+        <f>6/11</f>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -13047,12 +13027,12 @@
         <v>460</v>
       </c>
       <c r="D6" s="49">
-        <f>4/10</f>
-        <v>0.4</v>
+        <f>5/11</f>
+        <v>0.45454545454545453</v>
       </c>
       <c r="E6" s="49">
-        <f>6/10</f>
-        <v>0.6</v>
+        <f>6/11</f>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -13080,12 +13060,12 @@
         <v>461</v>
       </c>
       <c r="D8" s="43">
-        <f>2/10</f>
-        <v>0.2</v>
+        <f>2/11</f>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E8" s="43">
-        <f>8/10</f>
-        <v>0.8</v>
+        <f>9/11</f>
+        <v>0.81818181818181823</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
@@ -13237,11 +13217,11 @@
         <v>463</v>
       </c>
       <c r="D16" s="49">
-        <f>0/10</f>
+        <f>0/11</f>
         <v>0</v>
       </c>
       <c r="E16" s="49">
-        <f>10/10</f>
+        <f>11/11</f>
         <v>1</v>
       </c>
       <c r="F16" s="49">
@@ -13382,7 +13362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/Music and Memory - Lucy/PilotTest/Modified Lyrics/2_lyricErrorAnalysis-Modifications_v2.xlsx
+++ b/Music and Memory - Lucy/PilotTest/Modified Lyrics/2_lyricErrorAnalysis-Modifications_v2.xlsx
@@ -12945,12 +12945,12 @@
         <v>459</v>
       </c>
       <c r="D2" s="49">
-        <f>3/11</f>
-        <v>0.27272727272727271</v>
+        <f>4/13</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E2" s="49">
-        <f>8/11</f>
-        <v>0.72727272727272729</v>
+        <f>9/13</f>
+        <v>0.69230769230769229</v>
       </c>
       <c r="F2" s="49">
         <v>2</v>
@@ -12967,12 +12967,12 @@
         <v>456</v>
       </c>
       <c r="D3" s="49">
-        <f>5/11</f>
-        <v>0.45454545454545453</v>
+        <f>7/13</f>
+        <v>0.53846153846153844</v>
       </c>
       <c r="E3" s="49">
-        <f>6/11</f>
-        <v>0.54545454545454541</v>
+        <f>6/13</f>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -13027,12 +13027,12 @@
         <v>460</v>
       </c>
       <c r="D6" s="49">
-        <f>5/11</f>
-        <v>0.45454545454545453</v>
+        <f>6/13</f>
+        <v>0.46153846153846156</v>
       </c>
       <c r="E6" s="49">
-        <f>6/11</f>
-        <v>0.54545454545454541</v>
+        <f>7/13</f>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -13060,12 +13060,12 @@
         <v>461</v>
       </c>
       <c r="D8" s="43">
-        <f>2/11</f>
-        <v>0.18181818181818182</v>
+        <f>2/13</f>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E8" s="43">
-        <f>9/11</f>
-        <v>0.81818181818181823</v>
+        <f>11/13</f>
+        <v>0.84615384615384615</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
@@ -13217,11 +13217,11 @@
         <v>463</v>
       </c>
       <c r="D16" s="49">
-        <f>0/11</f>
+        <f>0/13</f>
         <v>0</v>
       </c>
       <c r="E16" s="49">
-        <f>11/11</f>
+        <f>13/13</f>
         <v>1</v>
       </c>
       <c r="F16" s="49">
